--- a/DATA_goal/Junction_Flooding_266.xlsx
+++ b/DATA_goal/Junction_Flooding_266.xlsx
@@ -465,10 +465,10 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -655,103 +655,103 @@
         <v>41698.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.22</v>
+        <v>1.92</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.81</v>
+        <v>4.08</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.82</v>
+        <v>3.28</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.99</v>
+        <v>4.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.27</v>
+        <v>2.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.74</v>
+        <v>1.67</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.99</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.55</v>
+        <v>22.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>41.81</v>
+        <v>4.18</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.55</v>
+        <v>2.76</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.31</v>
+        <v>2.43</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.56</v>
+        <v>4.26</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41698.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.82</v>
+        <v>1.98</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>30.31</v>
+        <v>3.03</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>102.57</v>
+        <v>10.26</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.32</v>
+        <v>2.03</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.76</v>
+        <v>2.78</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41698.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.88</v>
+        <v>2.29</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.24</v>
+        <v>3.22</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.56</v>
+        <v>11.86</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.12</v>
+        <v>2.31</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.18</v>
+        <v>2.92</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41698.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.51</v>
+        <v>1.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>42.36</v>
+        <v>4.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.66</v>
+        <v>3.47</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.49</v>
+        <v>5.75</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.45</v>
+        <v>1.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.68</v>
+        <v>2.17</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>225.01</v>
+        <v>22.5</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.64</v>
+        <v>4.26</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.61</v>
+        <v>2.86</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.23</v>
+        <v>2.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.1</v>
+        <v>5.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41698.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>22.74</v>
+        <v>2.27</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>18.49</v>
+        <v>1.85</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>34.85</v>
+        <v>3.49</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>117.44</v>
+        <v>11.74</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>23.03</v>
+        <v>2.3</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>16.55</v>
+        <v>1.65</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>31.81</v>
+        <v>3.18</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41698.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>12.15</v>
+        <v>1.22</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>23.29</v>
+        <v>2.33</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.35</v>
+        <v>0.53</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V7" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>75.08</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="W7" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>21.21</v>
+        <v>2.12</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41698.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>22.55</v>
+        <v>2.26</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>18.41</v>
+        <v>1.84</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>30.81</v>
+        <v>3.08</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.55</v>
+        <v>0.55</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AG8" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>116.26</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AH8" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41698.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>20.99</v>
+        <v>2.1</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>67.08</v>
+        <v>6.71</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41698.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>21.04</v>
+        <v>2.1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>45.76</v>
+        <v>4.58</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>37.65</v>
+        <v>3.76</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>60.57</v>
+        <v>6.06</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>25.48</v>
+        <v>2.55</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18.37</v>
+        <v>1.84</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>19.4</v>
+        <v>1.94</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>23.48</v>
+        <v>2.35</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>243.32</v>
+        <v>24.33</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>45.96</v>
+        <v>4.6</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>31.01</v>
+        <v>3.1</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>30.05</v>
+        <v>3.01</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.85</v>
+        <v>1.18</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>54.85</v>
+        <v>5.49</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_266.xlsx
+++ b/DATA_goal/Junction_Flooding_266.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -465,11 +465,11 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41698.34027777778</v>
+        <v>44947.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.92</v>
+        <v>0.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.08</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.28</v>
+        <v>0.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.45</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.8</v>
+        <v>0.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.33</v>
+        <v>0.59</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.47</v>
+        <v>0.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.74</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.67</v>
+        <v>0.43</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.5</v>
+        <v>0.34</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.1</v>
+        <v>0.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.28</v>
+        <v>0.3</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.15</v>
+        <v>5.46</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.18</v>
+        <v>1.11</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.39</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.76</v>
+        <v>0.66</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.41</v>
+        <v>0.49</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.31</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.52</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.66</v>
+        <v>0.64</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.26</v>
+        <v>0.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41698.34722222222</v>
+        <v>44947.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.79</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.44</v>
-      </c>
       <c r="AA3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.01</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.13</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.01</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.78</v>
+        <v>0.33</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41698.35416666666</v>
+        <v>44947.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.06</v>
+        <v>0.27</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.29</v>
+        <v>0.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.85</v>
+        <v>0.47</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.24</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.22</v>
+        <v>0.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.28</v>
+        <v>0.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.23</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.21</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.31</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.18</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.86</v>
+        <v>2.74</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.31</v>
+        <v>0.59</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.19</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.38</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.38</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.23</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.17</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.31</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.92</v>
+        <v>0.62</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41698.36111111111</v>
+        <v>44947.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.95</v>
+        <v>2.29</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.24</v>
+        <v>4.98</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.47</v>
+        <v>4.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="H5" s="4" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF5" s="4" t="n">
         <v>5.75</v>
       </c>
-      <c r="I5" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>5.21</v>
-      </c>
       <c r="AG5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41698.36805555555</v>
+        <v>44947.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.05</v>
+        <v>20.1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.76</v>
+        <v>15.29</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.27</v>
+        <v>43.61</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.85</v>
+        <v>35.96</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.82</v>
+        <v>16.06</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.49</v>
+        <v>62.11</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.27</v>
+        <v>24.34</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>10.97</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.82</v>
+        <v>16.68</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.91</v>
+        <v>18.09</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.96</v>
+        <v>18.38</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.26</v>
+        <v>5.06</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.82</v>
+        <v>15.69</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.16</v>
+        <v>22.57</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.7</v>
+        <v>13.06</v>
       </c>
       <c r="R6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>233.23</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>44.02</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>3.18</v>
+        <v>56.55</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.42</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41698.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41698.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41698.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41698.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>24.33</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41698.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>17.41</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>41.81</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>71.26000000000001</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>28.27</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>20.38</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>26.09</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>270.81</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>51.11</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>34.51</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>21.41</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>21.09</v>
+        <v>18.11</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_266.xlsx
+++ b/DATA_goal/Junction_Flooding_266.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>44947.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44947.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
@@ -816,46 +816,46 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44947.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44947.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.29</v>
+        <v>22.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.98</v>
+        <v>49.81</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.11</v>
+        <v>41.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.83</v>
+        <v>18.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.34</v>
+        <v>63.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.78</v>
+        <v>27.81</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.72</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.1</v>
+        <v>21.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.93</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.57</v>
+        <v>25.75</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>267.62</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>33.87</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>5.75</v>
+        <v>57.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_266.xlsx
+++ b/DATA_goal/Junction_Flooding_266.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,8 +445,8 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -455,26 +455,26 @@
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44947.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44947.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.256</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.06</v>
+        <v>3.062</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.266</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.153</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.57</v>
+        <v>1.568</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.181</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.541</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
@@ -816,46 +816,46 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.121</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>0.16</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.623</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>2.29</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.083</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.331</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.159</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.114</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.29</v>
+        <v>3.293</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.266</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44947.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.71</v>
+        <v>2.713</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.38</v>
+        <v>2.381</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.277</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>5.79</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.65</v>
+        <v>4.652</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.43</v>
+        <v>2.427</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.85</v>
+        <v>6.848</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.32</v>
+        <v>3.324</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.457</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.83</v>
+        <v>2.829</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.28</v>
+        <v>3.279</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>2.32</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.11</v>
+        <v>2.107</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.07</v>
+        <v>3.068</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.82</v>
+        <v>1.817</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.39</v>
+        <v>27.395</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.92</v>
+        <v>5.919</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.94</v>
+        <v>1.939</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.75</v>
+        <v>3.754</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.53</v>
+        <v>2.531</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.326</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>3.84</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.66</v>
+        <v>1.661</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.3</v>
+        <v>2.296</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.737</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.11</v>
+        <v>3.113</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.17</v>
+        <v>6.174</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.28</v>
+        <v>1.278</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.42</v>
+        <v>2.425</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>20.69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44947.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>43.61</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>35.96</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>62.11</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>24.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>18.38</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>233.23</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>44.02</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.53</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>56.55</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.11</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_266.xlsx
+++ b/DATA_goal/Junction_Flooding_266.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,103 +967,207 @@
         <v>44947.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.95</v>
+        <v>22.948</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.49</v>
+        <v>17.487</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.915</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>49.81</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.07</v>
+        <v>41.066</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.34</v>
+        <v>18.336</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>63.39</v>
+        <v>63.387</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.81</v>
+        <v>27.807</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.51</v>
+        <v>12.509</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.09</v>
+        <v>19.094</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.72</v>
+        <v>20.718</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.01</v>
+        <v>21.007</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.77</v>
+        <v>5.773</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.93</v>
+        <v>17.926</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.75</v>
+        <v>25.745</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.92</v>
+        <v>14.919</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.178</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.673</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>267.62</v>
+        <v>267.623</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.14</v>
+        <v>50.135</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.54</v>
+        <v>16.541</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.87</v>
+        <v>33.873</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.2</v>
+        <v>18.198</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.38</v>
+        <v>2.384</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.44</v>
+        <v>32.442</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.56</v>
+        <v>14.565</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.41</v>
+        <v>13.414</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.06</v>
+        <v>15.058</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.51</v>
+        <v>21.511</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.53</v>
+        <v>57.525</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.59</v>
+        <v>9.587999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.69</v>
+        <v>20.687</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44947.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>43.61</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>35.96</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>62.11</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>233.23</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>44.02</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>56.55</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>18.11</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_266.xlsx
+++ b/DATA_goal/Junction_Flooding_266.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,207 +967,103 @@
         <v>44947.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.948</v>
+        <v>22.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.487</v>
+        <v>17.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.915</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>49.81</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.066</v>
+        <v>41.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.336</v>
+        <v>18.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>63.387</v>
+        <v>63.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.807</v>
+        <v>27.81</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.509</v>
+        <v>12.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.094</v>
+        <v>19.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.718</v>
+        <v>20.72</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.007</v>
+        <v>21.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.773</v>
+        <v>5.77</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.926</v>
+        <v>17.93</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.745</v>
+        <v>25.75</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.919</v>
+        <v>14.92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.178</v>
+        <v>0.18</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.673</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>267.623</v>
+        <v>267.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.135</v>
+        <v>50.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.541</v>
+        <v>16.54</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.873</v>
+        <v>33.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.198</v>
+        <v>18.2</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.384</v>
+        <v>2.38</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.442</v>
+        <v>32.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.565</v>
+        <v>14.56</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.414</v>
+        <v>13.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.058</v>
+        <v>15.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.511</v>
+        <v>21.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.525</v>
+        <v>57.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.587999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.687</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44947.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>43.61</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>35.96</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>62.11</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>24.34</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>18.38</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>233.23</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>44.02</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>30.53</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>56.55</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.11</v>
+        <v>20.69</v>
       </c>
     </row>
   </sheetData>
